--- a/Data/Observations Data.xlsx
+++ b/Data/Observations Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Covariates" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4216" uniqueCount="412">
   <si>
     <t>Waypoint</t>
   </si>
@@ -1316,13 +1316,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1603,11 +1604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U441"/>
+  <dimension ref="A1:U442"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8228,31 +8229,37 @@
         <v>130</v>
       </c>
       <c r="C198">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E198">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F198">
-        <v>36</v>
-      </c>
-      <c r="G198" s="2">
-        <v>1056</v>
+        <v>9</v>
+      </c>
+      <c r="G198" s="6">
+        <v>0.16527777777777777</v>
       </c>
       <c r="H198">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="I198" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J198">
-        <v>444</v>
-      </c>
-      <c r="L198">
-        <v>6</v>
+        <v>1100</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="P198">
+        <v>1</v>
+      </c>
+      <c r="Q198">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -8260,19 +8267,19 @@
         <v>130</v>
       </c>
       <c r="C199">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="F199">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G199" s="2">
-        <v>1117</v>
+        <v>1056</v>
       </c>
       <c r="H199">
         <v>65</v>
@@ -8281,13 +8288,10 @@
         <v>11</v>
       </c>
       <c r="J199">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="L199">
-        <v>1</v>
-      </c>
-      <c r="P199">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -8295,33 +8299,33 @@
         <v>130</v>
       </c>
       <c r="C200">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D200" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E200">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="F200">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G200" s="2">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="H200">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I200" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J200">
-        <v>845</v>
-      </c>
-      <c r="O200">
-        <v>11</v>
-      </c>
-      <c r="U200">
+        <v>460</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="P200">
         <v>1</v>
       </c>
     </row>
@@ -8330,31 +8334,34 @@
         <v>130</v>
       </c>
       <c r="C201">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E201">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F201">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G201" s="2">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="H201">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I201" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J201">
-        <v>3180</v>
-      </c>
-      <c r="L201">
-        <v>2</v>
+        <v>845</v>
+      </c>
+      <c r="O201">
+        <v>11</v>
+      </c>
+      <c r="U201">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -8362,16 +8369,16 @@
         <v>130</v>
       </c>
       <c r="C202">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D202" t="s">
         <v>11</v>
       </c>
       <c r="E202">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F202">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G202" s="2">
         <v>1149</v>
@@ -8383,7 +8390,7 @@
         <v>11</v>
       </c>
       <c r="J202">
-        <v>3230</v>
+        <v>3180</v>
       </c>
       <c r="L202">
         <v>2</v>
@@ -8394,28 +8401,31 @@
         <v>130</v>
       </c>
       <c r="C203">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D203" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F203">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G203" s="2">
-        <v>1206</v>
+        <v>1149</v>
       </c>
       <c r="H203">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I203" t="s">
         <v>11</v>
       </c>
       <c r="J203">
-        <v>3595</v>
+        <v>3230</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -8423,37 +8433,28 @@
         <v>130</v>
       </c>
       <c r="C204">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D204" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E204">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F204">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G204" s="2">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="H204">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="I204" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J204">
-        <v>3320</v>
-      </c>
-      <c r="L204">
-        <v>1</v>
-      </c>
-      <c r="M204">
-        <v>1</v>
-      </c>
-      <c r="O204">
-        <v>9</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -8461,34 +8462,37 @@
         <v>130</v>
       </c>
       <c r="C205">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E205">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="F205">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="G205" s="2">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I205" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J205">
-        <v>310</v>
+        <v>3320</v>
       </c>
       <c r="L205">
-        <v>2</v>
-      </c>
-      <c r="P205">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="O205">
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -8496,19 +8500,19 @@
         <v>130</v>
       </c>
       <c r="C206">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D206" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="F206">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="G206" s="2">
-        <v>121</v>
+        <v>1243</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -8517,10 +8521,13 @@
         <v>11</v>
       </c>
       <c r="J206">
-        <v>555</v>
+        <v>310</v>
       </c>
       <c r="L206">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -8528,34 +8535,31 @@
         <v>130</v>
       </c>
       <c r="C207">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E207">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F207">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G207" s="2">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J207">
-        <v>305</v>
+        <v>555</v>
       </c>
       <c r="L207">
         <v>3</v>
-      </c>
-      <c r="M207">
-        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -8563,16 +8567,16 @@
         <v>130</v>
       </c>
       <c r="C208">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E208">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F208">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2">
         <v>138</v>
@@ -8581,16 +8585,16 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J208">
-        <v>0</v>
-      </c>
-      <c r="K208">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="L208">
         <v>3</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -8598,34 +8602,34 @@
         <v>130</v>
       </c>
       <c r="C209">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E209">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="F209">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G209" s="2">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H209">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J209">
-        <v>420</v>
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
       </c>
       <c r="L209">
-        <v>2</v>
-      </c>
-      <c r="M209">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -8633,30 +8637,33 @@
         <v>130</v>
       </c>
       <c r="C210">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D210" t="s">
         <v>10</v>
       </c>
       <c r="E210">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="F210">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G210" s="2">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="H210">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J210">
-        <v>70</v>
-      </c>
-      <c r="K210">
+        <v>420</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
         <v>1</v>
       </c>
     </row>
@@ -8665,31 +8672,31 @@
         <v>130</v>
       </c>
       <c r="C211">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F211">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="G211" s="2">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="H211">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="I211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J211">
-        <v>575</v>
-      </c>
-      <c r="M211">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -8697,34 +8704,31 @@
         <v>130</v>
       </c>
       <c r="C212">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="F212">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G212" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I212" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J212">
-        <v>0</v>
-      </c>
-      <c r="K212">
-        <v>2</v>
-      </c>
-      <c r="P212">
-        <v>1</v>
+        <v>575</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -8732,33 +8736,33 @@
         <v>130</v>
       </c>
       <c r="C213">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D213" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E213">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="F213">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="G213" s="2">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="H213">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J213">
-        <v>450</v>
-      </c>
-      <c r="L213">
-        <v>1</v>
-      </c>
-      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="P213">
         <v>1</v>
       </c>
     </row>
@@ -8767,30 +8771,33 @@
         <v>130</v>
       </c>
       <c r="C214">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D214" t="s">
         <v>12</v>
       </c>
       <c r="E214">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F214">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G214" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="H214">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I214" t="s">
         <v>11</v>
       </c>
       <c r="J214">
-        <v>295</v>
+        <v>450</v>
       </c>
       <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
         <v>1</v>
       </c>
     </row>
@@ -8799,16 +8806,16 @@
         <v>130</v>
       </c>
       <c r="C215">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E215">
         <v>49</v>
       </c>
       <c r="F215">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="G215" s="2">
         <v>317</v>
@@ -8817,13 +8824,13 @@
         <v>20</v>
       </c>
       <c r="I215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J215">
-        <v>275</v>
-      </c>
-      <c r="M215">
-        <v>2</v>
+        <v>295</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -8831,28 +8838,31 @@
         <v>130</v>
       </c>
       <c r="C216">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D216" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E216">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F216">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G216" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H216">
-        <v>640</v>
+        <v>20</v>
       </c>
       <c r="I216" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J216">
-        <v>775</v>
+        <v>275</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -8860,31 +8870,28 @@
         <v>130</v>
       </c>
       <c r="C217">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D217" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E217">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F217">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G217" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H217">
-        <v>45</v>
+        <v>640</v>
       </c>
       <c r="I217" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J217">
-        <v>615</v>
-      </c>
-      <c r="L217">
-        <v>2</v>
+        <v>775</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -8892,31 +8899,31 @@
         <v>130</v>
       </c>
       <c r="C218">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="D218" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E218">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G218" s="2">
-        <v>1056</v>
+        <v>355</v>
       </c>
       <c r="H218">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I218" t="s">
         <v>11</v>
       </c>
       <c r="J218">
-        <v>310</v>
+        <v>615</v>
       </c>
       <c r="L218">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -8924,31 +8931,31 @@
         <v>130</v>
       </c>
       <c r="C219">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E219">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F219">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G219" s="2">
-        <v>1117</v>
+        <v>1056</v>
       </c>
       <c r="H219">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I219" t="s">
         <v>11</v>
       </c>
       <c r="J219">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -8956,31 +8963,31 @@
         <v>130</v>
       </c>
       <c r="C220">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D220" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E220">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F220">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G220" s="2">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="H220">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="I220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J220">
-        <v>192</v>
-      </c>
-      <c r="K220">
-        <v>1</v>
+        <v>398</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -8988,33 +8995,30 @@
         <v>130</v>
       </c>
       <c r="C221">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D221" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E221">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F221">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="G221" s="2">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="H221">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="I221" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J221">
-        <v>3090</v>
-      </c>
-      <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="P221">
+        <v>192</v>
+      </c>
+      <c r="K221">
         <v>1</v>
       </c>
     </row>
@@ -9023,31 +9027,34 @@
         <v>130</v>
       </c>
       <c r="C222">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D222" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E222">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F222">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G222" s="2">
-        <v>1206</v>
+        <v>1149</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="I222" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="J222">
-        <v>4920</v>
-      </c>
-      <c r="M222">
-        <v>3</v>
+        <v>3090</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="P222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -9055,34 +9062,31 @@
         <v>130</v>
       </c>
       <c r="C223">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E223">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F223">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="G223" s="2">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="H223">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J223">
-        <v>2755</v>
-      </c>
-      <c r="O223">
-        <v>4</v>
-      </c>
-      <c r="U223">
-        <v>1</v>
+        <v>4920</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -9090,31 +9094,34 @@
         <v>130</v>
       </c>
       <c r="C224">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D224" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E224">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F224">
+        <v>6</v>
+      </c>
+      <c r="G224" s="2">
+        <v>1222</v>
+      </c>
+      <c r="H224">
+        <v>125</v>
+      </c>
+      <c r="I224" t="s">
         <v>14</v>
       </c>
-      <c r="G224" s="2">
-        <v>1243</v>
-      </c>
-      <c r="H224">
-        <v>70</v>
-      </c>
-      <c r="I224" t="s">
-        <v>11</v>
-      </c>
       <c r="J224">
-        <v>510</v>
-      </c>
-      <c r="L224">
-        <v>2</v>
+        <v>2755</v>
+      </c>
+      <c r="O224">
+        <v>4</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -9122,34 +9129,31 @@
         <v>130</v>
       </c>
       <c r="C225">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E225">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F225">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G225" s="2">
-        <v>121</v>
+        <v>1243</v>
       </c>
       <c r="H225">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I225" t="s">
         <v>11</v>
       </c>
       <c r="J225">
-        <v>47</v>
-      </c>
-      <c r="K225">
-        <v>2</v>
+        <v>510</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -9157,37 +9161,34 @@
         <v>130</v>
       </c>
       <c r="C226">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D226" t="s">
         <v>11</v>
       </c>
       <c r="E226">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F226">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="G226" s="2">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H226">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I226" t="s">
         <v>11</v>
       </c>
       <c r="J226">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>2</v>
       </c>
       <c r="L226">
-        <v>3</v>
-      </c>
-      <c r="M226">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -9195,16 +9196,16 @@
         <v>130</v>
       </c>
       <c r="C227">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D227" t="s">
         <v>11</v>
       </c>
       <c r="E227">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F227">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="G227" s="2">
         <v>138</v>
@@ -9216,10 +9217,13 @@
         <v>11</v>
       </c>
       <c r="J227">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K227">
         <v>2</v>
+      </c>
+      <c r="L227">
+        <v>3</v>
       </c>
       <c r="M227">
         <v>1</v>
@@ -9230,31 +9234,34 @@
         <v>130</v>
       </c>
       <c r="C228">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F228">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G228" s="2">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H228">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="I228" t="s">
         <v>11</v>
       </c>
       <c r="J228">
-        <v>455</v>
-      </c>
-      <c r="L228">
-        <v>4</v>
+        <v>124</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -9262,31 +9269,31 @@
         <v>130</v>
       </c>
       <c r="C229">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F229">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="G229" s="2">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="H229">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I229" t="s">
         <v>11</v>
       </c>
       <c r="J229">
-        <v>525</v>
+        <v>455</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -9294,31 +9301,31 @@
         <v>130</v>
       </c>
       <c r="C230">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F230">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="G230" s="2">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H230">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="I230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J230">
-        <v>705</v>
-      </c>
-      <c r="M230">
-        <v>2</v>
+        <v>525</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -9326,31 +9333,31 @@
         <v>130</v>
       </c>
       <c r="C231">
+        <v>222</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231">
+        <v>43</v>
+      </c>
+      <c r="F231">
+        <v>60</v>
+      </c>
+      <c r="G231" s="2">
         <v>224</v>
       </c>
-      <c r="D231" t="s">
-        <v>76</v>
-      </c>
-      <c r="E231">
-        <v>52</v>
-      </c>
-      <c r="F231">
-        <v>7</v>
-      </c>
-      <c r="G231" s="2">
-        <v>246</v>
-      </c>
       <c r="H231">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="I231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J231">
-        <v>506</v>
-      </c>
-      <c r="L231">
-        <v>1</v>
+        <v>705</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -9358,33 +9365,30 @@
         <v>130</v>
       </c>
       <c r="C232">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E232">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F232">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="G232" s="2">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="H232">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I232" t="s">
         <v>11</v>
       </c>
       <c r="J232">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="P232">
         <v>1</v>
       </c>
     </row>
@@ -9393,31 +9397,34 @@
         <v>130</v>
       </c>
       <c r="C233">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D233" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F233">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="G233" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="H233">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="I233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J233">
-        <v>13</v>
-      </c>
-      <c r="K233">
-        <v>3</v>
+        <v>448</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="P233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -9425,16 +9432,16 @@
         <v>130</v>
       </c>
       <c r="C234">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D234" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E234">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F234">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="G234" s="2">
         <v>317</v>
@@ -9443,16 +9450,13 @@
         <v>13</v>
       </c>
       <c r="I234" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J234">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="K234">
-        <v>2</v>
-      </c>
-      <c r="P234">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -9460,28 +9464,31 @@
         <v>130</v>
       </c>
       <c r="C235">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D235" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F235">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="G235" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H235">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="I235" t="s">
         <v>76</v>
       </c>
       <c r="J235">
-        <v>921</v>
+        <v>156</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
       </c>
       <c r="P235">
         <v>1</v>
@@ -9492,42 +9499,39 @@
         <v>130</v>
       </c>
       <c r="C236">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D236" t="s">
         <v>76</v>
       </c>
       <c r="E236">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F236">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G236" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H236">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="I236" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J236">
-        <v>171</v>
-      </c>
-      <c r="K236">
-        <v>1</v>
-      </c>
-      <c r="U236">
-        <v>2</v>
+        <v>921</v>
+      </c>
+      <c r="P236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C237">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D237" t="s">
         <v>76</v>
@@ -9536,22 +9540,25 @@
         <v>52</v>
       </c>
       <c r="F237">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G237" s="2">
-        <v>944</v>
+        <v>355</v>
       </c>
       <c r="H237">
-        <v>400</v>
+        <v>171</v>
       </c>
       <c r="I237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J237">
-        <v>920</v>
-      </c>
-      <c r="L237">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -9559,30 +9566,30 @@
         <v>136</v>
       </c>
       <c r="C238">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D238" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E238">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F238">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G238" s="2">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="H238">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="I238" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J238">
-        <v>2980</v>
-      </c>
-      <c r="S238">
+        <v>920</v>
+      </c>
+      <c r="L238">
         <v>1</v>
       </c>
     </row>
@@ -9591,30 +9598,30 @@
         <v>136</v>
       </c>
       <c r="C239">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D239" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E239">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F239">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G239" s="2">
-        <v>1013</v>
+        <v>959</v>
       </c>
       <c r="H239">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="I239" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J239">
-        <v>1250</v>
-      </c>
-      <c r="P239">
+        <v>2980</v>
+      </c>
+      <c r="S239">
         <v>1</v>
       </c>
     </row>
@@ -9623,1039 +9630,1039 @@
         <v>136</v>
       </c>
       <c r="C240">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D240" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E240">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F240">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G240" s="2">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="H240">
-        <v>425</v>
+        <v>270</v>
       </c>
       <c r="I240" t="s">
         <v>76</v>
       </c>
       <c r="J240">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+      <c r="P240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>136</v>
       </c>
       <c r="C241">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E241">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="F241">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G241" s="2">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="H241">
-        <v>210</v>
+        <v>425</v>
       </c>
       <c r="I241" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J241">
-        <v>520</v>
-      </c>
-      <c r="L241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>136</v>
       </c>
       <c r="C242">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D242" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E242">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="F242">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G242" s="2">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="H242">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="I242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J242">
-        <v>830</v>
-      </c>
-      <c r="M242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>136</v>
       </c>
       <c r="C243">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E243">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="F243">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G243" s="2">
-        <v>1114</v>
+        <v>1059</v>
       </c>
       <c r="H243">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="I243" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J243">
-        <v>170</v>
-      </c>
-      <c r="K243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>136</v>
       </c>
       <c r="C244">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D244" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E244">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="G244" s="2">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="H244">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="I244" t="s">
         <v>10</v>
       </c>
       <c r="J244">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>136</v>
       </c>
       <c r="C245">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D245" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E245">
         <v>45</v>
       </c>
       <c r="F245">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G245" s="2">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="H245">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="I245" t="s">
         <v>10</v>
       </c>
       <c r="J245">
-        <v>900</v>
-      </c>
-      <c r="P245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>136</v>
       </c>
       <c r="C246">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E246">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F246">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="G246" s="2">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="H246">
-        <v>670</v>
+        <v>900</v>
       </c>
       <c r="I246" t="s">
         <v>10</v>
       </c>
       <c r="J246">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="P246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>136</v>
       </c>
       <c r="C247">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D247" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E247">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F247">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G247" s="2">
-        <v>1210</v>
+        <v>1155</v>
       </c>
       <c r="H247">
-        <v>340</v>
+        <v>670</v>
       </c>
       <c r="I247" t="s">
         <v>10</v>
       </c>
       <c r="J247">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>136</v>
       </c>
       <c r="C248">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E248">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F248">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="G248" s="2">
-        <v>1246</v>
+        <v>1210</v>
       </c>
       <c r="H248">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="I248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J248">
-        <v>410</v>
-      </c>
-      <c r="L248">
-        <v>1</v>
-      </c>
-      <c r="P248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>136</v>
       </c>
       <c r="C249">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D249" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E249">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="F249">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G249" s="2">
-        <v>101</v>
+        <v>1246</v>
       </c>
       <c r="H249">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I249" t="s">
         <v>11</v>
       </c>
       <c r="J249">
-        <v>150</v>
-      </c>
-      <c r="K249">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="L249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>136</v>
       </c>
       <c r="C250">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E250">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F250">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G250" s="2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H250">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I250" t="s">
         <v>11</v>
       </c>
       <c r="J250">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="K250">
         <v>1</v>
       </c>
       <c r="L250">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>136</v>
       </c>
       <c r="C251">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E251">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="F251">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="G251" s="2">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I251" t="s">
         <v>11</v>
       </c>
       <c r="J251">
-        <v>365</v>
+        <v>308</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
       </c>
       <c r="L251">
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>136</v>
       </c>
       <c r="C252">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E252">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="F252">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="G252" s="2">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252" t="s">
+        <v>11</v>
+      </c>
+      <c r="J252">
         <v>365</v>
       </c>
-      <c r="I252" t="s">
-        <v>11</v>
-      </c>
-      <c r="J252">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>136</v>
       </c>
       <c r="C253">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E253">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F253">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G253" s="2">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="H253">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="I253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J253">
-        <v>4290</v>
-      </c>
-      <c r="M253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>136</v>
       </c>
       <c r="C254">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E254">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F254">
+        <v>42</v>
+      </c>
+      <c r="G254" s="2">
+        <v>205</v>
+      </c>
+      <c r="H254">
+        <v>160</v>
+      </c>
+      <c r="I254" t="s">
         <v>12</v>
       </c>
-      <c r="G254" s="2">
-        <v>222</v>
-      </c>
-      <c r="H254">
-        <v>260</v>
-      </c>
-      <c r="I254" t="s">
-        <v>13</v>
-      </c>
       <c r="J254">
-        <v>4620</v>
-      </c>
-      <c r="N254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4290</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>136</v>
       </c>
       <c r="C255">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D255" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="E255">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F255">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G255" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="H255">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="I255" t="s">
         <v>13</v>
       </c>
       <c r="J255">
-        <v>3860</v>
+        <v>4620</v>
       </c>
       <c r="N255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>136</v>
       </c>
       <c r="C256">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D256" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="E256">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F256">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G256" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H256">
         <v>180</v>
       </c>
       <c r="I256" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="J256">
-        <v>3490</v>
-      </c>
-      <c r="U256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3860</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>136</v>
       </c>
       <c r="C257">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D257" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E257">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F257">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G257" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="H257">
-        <v>765</v>
+        <v>180</v>
       </c>
       <c r="I257" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="J257">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3490</v>
+      </c>
+      <c r="U257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>136</v>
       </c>
       <c r="C258">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D258" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E258">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F258">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G258" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H258">
-        <v>320</v>
+        <v>765</v>
       </c>
       <c r="I258" t="s">
         <v>13</v>
       </c>
       <c r="J258">
-        <v>3615</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>136</v>
       </c>
       <c r="C259">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D259" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E259">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F259">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G259" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H259">
         <v>320</v>
       </c>
       <c r="I259" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J259">
-        <v>520</v>
-      </c>
-      <c r="M259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>136</v>
       </c>
       <c r="C260">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D260" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="F260">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G260" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H260">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="I260" t="s">
         <v>12</v>
       </c>
       <c r="J260">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="M260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>136</v>
       </c>
       <c r="C261">
+        <v>259</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <v>215</v>
+      </c>
+      <c r="F261">
+        <v>93</v>
+      </c>
+      <c r="G261" s="2">
+        <v>349</v>
+      </c>
+      <c r="H261">
+        <v>245</v>
+      </c>
+      <c r="I261" t="s">
+        <v>12</v>
+      </c>
+      <c r="J261">
+        <v>360</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>136</v>
+      </c>
+      <c r="C262">
         <v>260</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D262" t="s">
         <v>134</v>
       </c>
-      <c r="E261">
+      <c r="E262">
         <v>30</v>
       </c>
-      <c r="F261">
+      <c r="F262">
         <v>5</v>
       </c>
-      <c r="G261" s="2">
+      <c r="G262" s="2">
         <v>402</v>
       </c>
-      <c r="H261">
+      <c r="H262">
         <v>140</v>
       </c>
-      <c r="I261" t="s">
-        <v>11</v>
-      </c>
-      <c r="J261">
+      <c r="I262" t="s">
+        <v>11</v>
+      </c>
+      <c r="J262">
         <v>670</v>
       </c>
-      <c r="L261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>169</v>
-      </c>
-      <c r="C262">
-        <v>261</v>
-      </c>
-      <c r="D262" t="s">
-        <v>11</v>
-      </c>
-      <c r="E262">
-        <v>40</v>
-      </c>
-      <c r="F262">
-        <v>41</v>
-      </c>
-      <c r="G262" s="2">
-        <v>941</v>
-      </c>
-      <c r="H262">
-        <v>335</v>
-      </c>
-      <c r="I262" t="s">
-        <v>11</v>
-      </c>
-      <c r="J262">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>169</v>
       </c>
       <c r="C263">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D263" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E263">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F263">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G263" s="2">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="H263">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="I263" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J263">
-        <v>1860</v>
-      </c>
-      <c r="O263">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>169</v>
       </c>
       <c r="C264">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D264" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="E264">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F264">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G264" s="2">
-        <v>1022</v>
+        <v>959</v>
       </c>
       <c r="H264">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="I264" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="J264">
-        <v>2050</v>
-      </c>
-      <c r="P264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1860</v>
+      </c>
+      <c r="O264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>169</v>
       </c>
       <c r="C265">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D265" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E265">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F265">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G265" s="2">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="H265">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="I265" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="J265">
-        <v>730</v>
-      </c>
-      <c r="M265">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2050</v>
+      </c>
+      <c r="P265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>169</v>
       </c>
       <c r="C266">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D266" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E266">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="F266">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="G266" s="2">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="H266">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="I266" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J266">
-        <v>155</v>
-      </c>
-      <c r="K266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>169</v>
       </c>
       <c r="C267">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D267" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E267">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="F267">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="G267" s="2">
-        <v>1103</v>
+        <v>1055</v>
       </c>
       <c r="H267">
-        <v>420</v>
+        <v>155</v>
       </c>
       <c r="I267" t="s">
         <v>10</v>
       </c>
       <c r="J267">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>169</v>
       </c>
       <c r="C268">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E268">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F268">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G268" s="2">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="H268">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="I268" t="s">
         <v>10</v>
       </c>
       <c r="J268">
-        <v>300</v>
-      </c>
-      <c r="K268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>169</v>
       </c>
       <c r="C269">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D269" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E269">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F269">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G269" s="2">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="H269">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="I269" t="s">
         <v>10</v>
       </c>
       <c r="J269">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K269">
         <v>1</v>
       </c>
-      <c r="L269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>169</v>
       </c>
       <c r="C270">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D270" t="s">
         <v>76</v>
       </c>
       <c r="E270">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F270">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G270" s="2">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="H270">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="I270" t="s">
-        <v>11</v>
-      </c>
-      <c r="J270" t="s">
-        <v>307</v>
+        <v>10</v>
+      </c>
+      <c r="J270">
+        <v>120</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
       </c>
       <c r="L270">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>169</v>
       </c>
       <c r="C271">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E271">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F271">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G271" s="2">
-        <v>1206</v>
+        <v>1150</v>
       </c>
       <c r="H271">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I271" t="s">
-        <v>76</v>
-      </c>
-      <c r="J271">
-        <v>380</v>
-      </c>
-      <c r="P271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J271" t="s">
+        <v>307</v>
+      </c>
+      <c r="L271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>169</v>
       </c>
       <c r="C272">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D272" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E272">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="F272">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="G272" s="2">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I272" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J272">
-        <v>0</v>
-      </c>
-      <c r="K272">
+        <v>380</v>
+      </c>
+      <c r="P272">
         <v>1</v>
       </c>
     </row>
@@ -10664,28 +10671,31 @@
         <v>169</v>
       </c>
       <c r="C273">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D273" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E273">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="F273">
-        <v>2</v>
+        <v>312</v>
       </c>
       <c r="G273" s="2">
-        <v>101</v>
+        <v>1217</v>
       </c>
       <c r="H273">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J273">
-        <v>3230</v>
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.25">
@@ -10693,28 +10703,28 @@
         <v>169</v>
       </c>
       <c r="C274">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E274">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F274">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G274" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H274">
-        <v>430</v>
+        <v>1810</v>
       </c>
       <c r="I274" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J274">
-        <v>2630</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.25">
@@ -10722,28 +10732,28 @@
         <v>169</v>
       </c>
       <c r="C275">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D275" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E275">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F275">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G275" s="2">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="H275">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="I275" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J275">
-        <v>2105</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.25">
@@ -10751,28 +10761,28 @@
         <v>169</v>
       </c>
       <c r="C276">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D276" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E276">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="F276">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="G276" s="2">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H276">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="I276" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J276">
-        <v>810</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.25">
@@ -10780,28 +10790,28 @@
         <v>169</v>
       </c>
       <c r="C277">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D277" t="s">
         <v>10</v>
       </c>
       <c r="E277">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="F277">
-        <v>105</v>
+        <v>351</v>
       </c>
       <c r="G277" s="2">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="H277">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="I277" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J277">
-        <v>410</v>
+        <v>810</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
@@ -10809,31 +10819,28 @@
         <v>169</v>
       </c>
       <c r="C278">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E278">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="F278">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G278" s="2">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="H278">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="I278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J278">
-        <v>650</v>
-      </c>
-      <c r="L278">
-        <v>3</v>
+        <v>410</v>
       </c>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.25">
@@ -10841,28 +10848,31 @@
         <v>169</v>
       </c>
       <c r="C279">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D279" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E279">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F279">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G279" s="2">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="H279">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I279" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J279">
-        <v>510</v>
+        <v>650</v>
+      </c>
+      <c r="L279">
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.25">
@@ -10870,34 +10880,28 @@
         <v>169</v>
       </c>
       <c r="C280">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D280" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E280">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="F280">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="G280" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H280">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="I280" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J280">
-        <v>220</v>
-      </c>
-      <c r="K280">
-        <v>1</v>
-      </c>
-      <c r="L280">
-        <v>1</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.25">
@@ -10905,31 +10909,34 @@
         <v>169</v>
       </c>
       <c r="C281">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D281" t="s">
         <v>12</v>
       </c>
       <c r="E281">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F281">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G281" s="2">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="H281">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="I281" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J281">
-        <v>660</v>
-      </c>
-      <c r="P281">
-        <v>2</v>
+        <v>220</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.25">
@@ -10937,34 +10944,31 @@
         <v>169</v>
       </c>
       <c r="C282">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D282" t="s">
         <v>12</v>
       </c>
       <c r="E282">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F282">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="G282" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H282">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="I282" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J282">
-        <v>120</v>
-      </c>
-      <c r="K282">
-        <v>1</v>
-      </c>
-      <c r="M282">
-        <v>1</v>
+        <v>660</v>
+      </c>
+      <c r="P282">
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
@@ -10972,31 +10976,31 @@
         <v>169</v>
       </c>
       <c r="C283">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D283" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="E283">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F283">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G283" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="H283">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="I283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J283">
-        <v>330</v>
-      </c>
-      <c r="L283">
-        <v>2</v>
+        <v>120</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
       </c>
       <c r="M283">
         <v>1</v>
@@ -11007,30 +11011,33 @@
         <v>169</v>
       </c>
       <c r="C284">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D284" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="E284">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F284">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G284" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="H284">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="I284" t="s">
         <v>11</v>
       </c>
       <c r="J284">
-        <v>90</v>
-      </c>
-      <c r="K284">
+        <v>330</v>
+      </c>
+      <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
         <v>1</v>
       </c>
     </row>
@@ -11039,16 +11046,16 @@
         <v>169</v>
       </c>
       <c r="C285">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D285" t="s">
         <v>11</v>
       </c>
       <c r="E285">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F285">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G285" s="2">
         <v>356</v>
@@ -11060,7 +11067,7 @@
         <v>11</v>
       </c>
       <c r="J285">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K285">
         <v>1</v>
@@ -11071,28 +11078,31 @@
         <v>169</v>
       </c>
       <c r="C286">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D286" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E286">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F286">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G286" s="2">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="H286">
-        <v>490</v>
+        <v>30</v>
       </c>
       <c r="I286" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J286">
-        <v>700</v>
+        <v>110</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.25">
@@ -11100,66 +11110,57 @@
         <v>169</v>
       </c>
       <c r="C287">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D287" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E287">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="F287">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="G287" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H287">
-        <v>10</v>
+        <v>490</v>
       </c>
       <c r="I287" t="s">
         <v>76</v>
       </c>
       <c r="J287">
-        <v>650</v>
-      </c>
-      <c r="P287">
-        <v>1</v>
+        <v>700</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="C288">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D288" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E288">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="F288">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="G288" s="2">
-        <v>1010</v>
+        <v>422</v>
       </c>
       <c r="H288">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I288" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J288">
-        <v>175</v>
-      </c>
-      <c r="K288">
-        <v>1</v>
-      </c>
-      <c r="L288">
-        <v>2</v>
+        <v>650</v>
       </c>
       <c r="P288">
         <v>1</v>
@@ -11170,31 +11171,37 @@
         <v>238</v>
       </c>
       <c r="C289">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D289" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E289">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F289">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G289" s="2">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I289" t="s">
         <v>11</v>
       </c>
       <c r="J289">
-        <v>410</v>
+        <v>175</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
       </c>
       <c r="L289">
         <v>2</v>
+      </c>
+      <c r="P289">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
@@ -11202,16 +11209,16 @@
         <v>238</v>
       </c>
       <c r="C290">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D290" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E290">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F290">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G290" s="2">
         <v>1029</v>
@@ -11220,16 +11227,13 @@
         <v>0</v>
       </c>
       <c r="I290" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J290">
         <v>410</v>
       </c>
       <c r="L290">
-        <v>1</v>
-      </c>
-      <c r="P290">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
@@ -11237,34 +11241,34 @@
         <v>238</v>
       </c>
       <c r="C291">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D291" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E291">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="F291">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="G291" s="2">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="H291">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J291">
-        <v>200</v>
-      </c>
-      <c r="K291">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="L291">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P291">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
@@ -11272,31 +11276,34 @@
         <v>238</v>
       </c>
       <c r="C292">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E292">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="F292">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="G292" s="2">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="H292">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="I292" t="s">
         <v>11</v>
       </c>
       <c r="J292">
-        <v>670</v>
+        <v>200</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
       </c>
       <c r="L292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.25">
@@ -11304,28 +11311,31 @@
         <v>238</v>
       </c>
       <c r="C293">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D293" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E293">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F293">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G293" s="2">
-        <v>1114</v>
+        <v>1058</v>
       </c>
       <c r="H293">
-        <v>560</v>
+        <v>290</v>
       </c>
       <c r="I293" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J293">
-        <v>560</v>
+        <v>670</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.25">
@@ -11333,34 +11343,28 @@
         <v>238</v>
       </c>
       <c r="C294">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D294" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E294">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F294">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G294" s="2">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="H294">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="I294" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J294">
-        <v>135</v>
-      </c>
-      <c r="K294">
-        <v>1</v>
-      </c>
-      <c r="L294">
-        <v>1</v>
+        <v>560</v>
       </c>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
@@ -11368,31 +11372,34 @@
         <v>238</v>
       </c>
       <c r="C295">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D295" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E295">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="F295">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="G295" s="2">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="H295">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I295" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J295">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="K295">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
@@ -11400,31 +11407,31 @@
         <v>238</v>
       </c>
       <c r="C296">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D296" t="s">
         <v>10</v>
       </c>
       <c r="E296">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="F296">
-        <v>343</v>
+        <v>123</v>
       </c>
       <c r="G296" s="2">
-        <v>1217</v>
+        <v>1148</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I296" t="s">
         <v>10</v>
       </c>
       <c r="J296">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K296">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.25">
@@ -11432,37 +11439,31 @@
         <v>238</v>
       </c>
       <c r="C297">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D297" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E297">
-        <v>68</v>
+        <v>310</v>
       </c>
       <c r="F297">
-        <v>10</v>
+        <v>343</v>
       </c>
       <c r="G297" s="2">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="H297">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I297" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J297">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K297">
-        <v>1</v>
-      </c>
-      <c r="L297">
-        <v>1</v>
-      </c>
-      <c r="P297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
@@ -11470,33 +11471,36 @@
         <v>238</v>
       </c>
       <c r="C298">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D298" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E298">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F298">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G298" s="2">
-        <v>115</v>
+        <v>1231</v>
       </c>
       <c r="H298">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I298" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J298">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="K298">
         <v>1</v>
       </c>
       <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="P298">
         <v>1</v>
       </c>
     </row>
@@ -11505,28 +11509,31 @@
         <v>238</v>
       </c>
       <c r="C299">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D299" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E299">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F299">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G299" s="2">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J299">
-        <v>400</v>
+        <v>135</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
       </c>
       <c r="L299">
         <v>1</v>
@@ -11537,16 +11544,16 @@
         <v>238</v>
       </c>
       <c r="C300">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D300" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E300">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F300">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="G300" s="2">
         <v>129</v>
@@ -11555,13 +11562,13 @@
         <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J300">
         <v>400</v>
       </c>
-      <c r="P300">
-        <v>2</v>
+      <c r="L300">
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.25">
@@ -11569,31 +11576,31 @@
         <v>238</v>
       </c>
       <c r="C301">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D301" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E301">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F301">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G301" s="2">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H301">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I301" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J301">
-        <v>2475</v>
-      </c>
-      <c r="L301">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="P301">
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.25">
@@ -11601,31 +11608,31 @@
         <v>238</v>
       </c>
       <c r="C302">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D302" t="s">
         <v>134</v>
       </c>
       <c r="E302">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F302">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G302" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="H302">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="I302" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="J302">
-        <v>3395</v>
-      </c>
-      <c r="U302">
-        <v>1</v>
+        <v>2475</v>
+      </c>
+      <c r="L302">
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
@@ -11633,36 +11640,30 @@
         <v>238</v>
       </c>
       <c r="C303">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D303" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E303">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="F303">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G303" s="2">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="H303">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="I303" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="J303">
-        <v>150</v>
-      </c>
-      <c r="K303">
-        <v>1</v>
-      </c>
-      <c r="L303">
-        <v>1</v>
-      </c>
-      <c r="P303">
+        <v>3395</v>
+      </c>
+      <c r="U303">
         <v>1</v>
       </c>
     </row>
@@ -11671,34 +11672,37 @@
         <v>238</v>
       </c>
       <c r="C304">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D304" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E304">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F304">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G304" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J304">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K304">
         <v>1</v>
       </c>
       <c r="L304">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P304">
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:21" x14ac:dyDescent="0.25">
@@ -11706,25 +11710,25 @@
         <v>238</v>
       </c>
       <c r="C305">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D305" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E305">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F305">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G305" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H305">
         <v>0</v>
       </c>
       <c r="I305" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J305">
         <v>300</v>
@@ -11733,10 +11737,7 @@
         <v>1</v>
       </c>
       <c r="L305">
-        <v>2</v>
-      </c>
-      <c r="P305">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:21" x14ac:dyDescent="0.25">
@@ -11744,34 +11745,37 @@
         <v>238</v>
       </c>
       <c r="C306">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D306" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E306">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F306">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G306" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H306">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I306" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="J306">
-        <v>1100</v>
-      </c>
-      <c r="O306">
-        <v>1</v>
-      </c>
-      <c r="U306">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
+      <c r="P306">
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:21" x14ac:dyDescent="0.25">
@@ -11779,28 +11783,34 @@
         <v>238</v>
       </c>
       <c r="C307">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D307" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E307">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="F307">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G307" s="2">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="H307">
-        <v>490</v>
+        <v>45</v>
       </c>
       <c r="I307" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="J307">
-        <v>490</v>
+        <v>1100</v>
+      </c>
+      <c r="O307">
+        <v>1</v>
+      </c>
+      <c r="U307">
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.25">
@@ -11808,34 +11818,28 @@
         <v>238</v>
       </c>
       <c r="C308">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D308" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E308">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F308">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="G308" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="H308">
-        <v>50</v>
+        <v>490</v>
       </c>
       <c r="I308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J308">
-        <v>570</v>
-      </c>
-      <c r="L308">
-        <v>1</v>
-      </c>
-      <c r="P308">
-        <v>2</v>
+        <v>490</v>
       </c>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.25">
@@ -11843,34 +11847,34 @@
         <v>238</v>
       </c>
       <c r="C309">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D309" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="E309">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F309">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="G309" s="2">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="H309">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="I309" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J309">
-        <v>230</v>
-      </c>
-      <c r="K309">
-        <v>1</v>
+        <v>570</v>
       </c>
       <c r="L309">
         <v>1</v>
+      </c>
+      <c r="P309">
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.25">
@@ -11878,36 +11882,33 @@
         <v>238</v>
       </c>
       <c r="C310">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E310">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F310">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G310" s="2">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="H310">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="I310" t="s">
         <v>10</v>
       </c>
       <c r="J310">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K310">
         <v>1</v>
       </c>
       <c r="L310">
-        <v>1</v>
-      </c>
-      <c r="U310">
         <v>1</v>
       </c>
     </row>
@@ -11916,31 +11917,37 @@
         <v>238</v>
       </c>
       <c r="C311">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D311" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E311">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="F311">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G311" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="H311">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="I311" t="s">
         <v>10</v>
       </c>
       <c r="J311">
-        <v>300</v>
+        <v>120</v>
+      </c>
+      <c r="K311">
+        <v>1</v>
       </c>
       <c r="L311">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="U311">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.25">
@@ -11948,28 +11955,28 @@
         <v>238</v>
       </c>
       <c r="C312">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D312" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E312">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F312">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G312" s="2">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="H312">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="I312" t="s">
         <v>10</v>
       </c>
       <c r="J312">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="L312">
         <v>2</v>
@@ -11977,34 +11984,34 @@
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C313">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D313" t="s">
         <v>76</v>
       </c>
       <c r="E313">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F313">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G313" s="2">
-        <v>1037</v>
+        <v>430</v>
       </c>
       <c r="H313">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J313">
-        <v>1430</v>
+        <v>120</v>
       </c>
       <c r="L313">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.25">
@@ -12012,28 +12019,31 @@
         <v>255</v>
       </c>
       <c r="C314">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D314" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E314">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F314">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G314" s="2">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="H314">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="I314" t="s">
         <v>11</v>
       </c>
       <c r="J314">
-        <v>2030</v>
+        <v>1430</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.25">
@@ -12041,28 +12051,28 @@
         <v>255</v>
       </c>
       <c r="C315">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D315" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E315">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F315">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G315" s="2">
-        <v>1104</v>
+        <v>1050</v>
       </c>
       <c r="H315">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="I315" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J315">
-        <v>320</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.25">
@@ -12070,31 +12080,28 @@
         <v>255</v>
       </c>
       <c r="C316">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D316" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E316">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="F316">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="G316" s="2">
-        <v>1120</v>
+        <v>1104</v>
       </c>
       <c r="H316">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="I316" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J316">
-        <v>640</v>
-      </c>
-      <c r="P316">
-        <v>1</v>
+        <v>320</v>
       </c>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.25">
@@ -12102,33 +12109,30 @@
         <v>255</v>
       </c>
       <c r="C317">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E317">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="F317">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="G317" s="2">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="H317">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I317" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J317">
-        <v>250</v>
-      </c>
-      <c r="K317">
-        <v>1</v>
-      </c>
-      <c r="L317">
+        <v>640</v>
+      </c>
+      <c r="P317">
         <v>1</v>
       </c>
     </row>
@@ -12137,16 +12141,16 @@
         <v>255</v>
       </c>
       <c r="C318">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D318" t="s">
         <v>11</v>
       </c>
       <c r="E318">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F318">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G318" s="2">
         <v>1137</v>
@@ -12158,10 +12162,13 @@
         <v>11</v>
       </c>
       <c r="J318">
-        <v>360</v>
+        <v>250</v>
+      </c>
+      <c r="K318">
+        <v>1</v>
       </c>
       <c r="L318">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.25">
@@ -12169,28 +12176,31 @@
         <v>255</v>
       </c>
       <c r="C319">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D319" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E319">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F319">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="G319" s="2">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="H319">
-        <v>365</v>
+        <v>95</v>
       </c>
       <c r="I319" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J319">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="L319">
+        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.25">
@@ -12198,31 +12208,28 @@
         <v>255</v>
       </c>
       <c r="C320">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D320" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E320">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F320">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="G320" s="2">
-        <v>1206</v>
+        <v>1153</v>
       </c>
       <c r="H320">
-        <v>170</v>
+        <v>365</v>
       </c>
       <c r="I320" t="s">
         <v>10</v>
       </c>
       <c r="J320">
-        <v>170</v>
-      </c>
-      <c r="K320">
-        <v>2</v>
+        <v>365</v>
       </c>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.25">
@@ -12230,28 +12237,31 @@
         <v>255</v>
       </c>
       <c r="C321">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D321" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E321">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="F321">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="G321" s="2">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="H321">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="I321" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="J321">
-        <v>675</v>
+        <v>170</v>
+      </c>
+      <c r="K321">
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.25">
@@ -12259,28 +12269,28 @@
         <v>255</v>
       </c>
       <c r="C322">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D322" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E322">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="F322">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="G322" s="2">
-        <v>1242</v>
+        <v>1224</v>
       </c>
       <c r="H322">
-        <v>990</v>
+        <v>350</v>
       </c>
       <c r="I322" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="J322">
-        <v>990</v>
+        <v>675</v>
       </c>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.25">
@@ -12288,34 +12298,28 @@
         <v>255</v>
       </c>
       <c r="C323">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D323" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E323">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="F323">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="G323" s="2">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="I323" t="s">
         <v>10</v>
       </c>
       <c r="J323">
-        <v>0</v>
-      </c>
-      <c r="K323">
-        <v>3</v>
-      </c>
-      <c r="P323">
-        <v>1</v>
+        <v>990</v>
       </c>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.25">
@@ -12323,33 +12327,33 @@
         <v>255</v>
       </c>
       <c r="C324">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E324">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F324">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G324" s="2">
-        <v>113</v>
+        <v>1259</v>
       </c>
       <c r="H324">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I324" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J324">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="K324">
         <v>3</v>
       </c>
-      <c r="L324">
+      <c r="P324">
         <v>1</v>
       </c>
     </row>
@@ -12358,31 +12362,31 @@
         <v>255</v>
       </c>
       <c r="C325">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D325" t="s">
         <v>11</v>
       </c>
       <c r="E325">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F325">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="G325" s="2">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="H325">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="I325" t="s">
         <v>11</v>
       </c>
       <c r="J325">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="K325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L325">
         <v>1</v>
@@ -12393,31 +12397,34 @@
         <v>255</v>
       </c>
       <c r="C326">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D326" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E326">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F326">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="G326" s="2">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="H326">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="I326" t="s">
         <v>11</v>
       </c>
       <c r="J326">
-        <v>80</v>
+        <v>280</v>
+      </c>
+      <c r="K326">
+        <v>1</v>
       </c>
       <c r="L326">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.25">
@@ -12425,31 +12432,31 @@
         <v>255</v>
       </c>
       <c r="C327">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D327" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E327">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="F327">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="G327" s="2">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="H327">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="I327" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J327">
-        <v>470</v>
-      </c>
-      <c r="P327">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="L327">
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.25">
@@ -12457,28 +12464,28 @@
         <v>255</v>
       </c>
       <c r="C328">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D328" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E328">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F328">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G328" s="2">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="H328">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="I328" t="s">
         <v>76</v>
       </c>
-      <c r="J328" t="s">
-        <v>307</v>
+      <c r="J328">
+        <v>470</v>
       </c>
       <c r="P328">
         <v>1</v>
@@ -12489,30 +12496,30 @@
         <v>255</v>
       </c>
       <c r="C329">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329">
+        <v>62</v>
+      </c>
+      <c r="F329">
+        <v>38</v>
+      </c>
+      <c r="G329" s="2">
+        <v>238</v>
+      </c>
+      <c r="H329">
+        <v>160</v>
+      </c>
+      <c r="I329" t="s">
         <v>76</v>
       </c>
-      <c r="E329">
-        <v>52</v>
-      </c>
-      <c r="F329">
-        <v>11</v>
-      </c>
-      <c r="G329" s="2">
-        <v>256</v>
-      </c>
-      <c r="H329">
-        <v>280</v>
-      </c>
-      <c r="I329" t="s">
-        <v>10</v>
-      </c>
-      <c r="J329">
-        <v>280</v>
-      </c>
-      <c r="K329">
+      <c r="J329" t="s">
+        <v>307</v>
+      </c>
+      <c r="P329">
         <v>1</v>
       </c>
     </row>
@@ -12521,33 +12528,30 @@
         <v>255</v>
       </c>
       <c r="C330">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D330" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E330">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F330">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G330" s="2">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="H330">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="I330" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J330">
-        <v>830</v>
-      </c>
-      <c r="L330">
-        <v>1</v>
-      </c>
-      <c r="U330">
+        <v>280</v>
+      </c>
+      <c r="K330">
         <v>1</v>
       </c>
     </row>
@@ -12556,16 +12560,16 @@
         <v>255</v>
       </c>
       <c r="C331">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D331" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="E331">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F331">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G331" s="2">
         <v>311</v>
@@ -12574,13 +12578,16 @@
         <v>65</v>
       </c>
       <c r="I331" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="J331">
-        <v>760</v>
+        <v>830</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
       </c>
       <c r="U331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:21" x14ac:dyDescent="0.25">
@@ -12588,34 +12595,31 @@
         <v>255</v>
       </c>
       <c r="C332">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D332" t="s">
+        <v>11</v>
+      </c>
+      <c r="E332">
+        <v>59</v>
+      </c>
+      <c r="F332">
+        <v>24</v>
+      </c>
+      <c r="G332" s="2">
+        <v>311</v>
+      </c>
+      <c r="H332">
+        <v>65</v>
+      </c>
+      <c r="I332" t="s">
         <v>134</v>
       </c>
-      <c r="E332">
-        <v>38</v>
-      </c>
-      <c r="F332">
-        <v>4</v>
-      </c>
-      <c r="G332" s="2">
-        <v>326</v>
-      </c>
-      <c r="H332">
-        <v>200</v>
-      </c>
-      <c r="I332" t="s">
-        <v>10</v>
-      </c>
       <c r="J332">
-        <v>200</v>
-      </c>
-      <c r="L332">
-        <v>1</v>
+        <v>760</v>
       </c>
       <c r="U332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.25">
@@ -12623,28 +12627,34 @@
         <v>255</v>
       </c>
       <c r="C333">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D333" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E333">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="F333">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="G333" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H333">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="I333" t="s">
         <v>10</v>
       </c>
       <c r="J333">
-        <v>370</v>
+        <v>200</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="U333">
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.25">
@@ -12652,34 +12662,28 @@
         <v>255</v>
       </c>
       <c r="C334">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D334" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E334">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="F334">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G334" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="H334">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="I334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J334">
-        <v>230</v>
-      </c>
-      <c r="K334">
-        <v>1</v>
-      </c>
-      <c r="L334">
-        <v>1</v>
+        <v>370</v>
       </c>
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.25">
@@ -12687,30 +12691,33 @@
         <v>255</v>
       </c>
       <c r="C335">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D335" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E335">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F335">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G335" s="2">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="H335">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I335" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J335">
-        <v>770</v>
-      </c>
-      <c r="P335">
+        <v>230</v>
+      </c>
+      <c r="K335">
+        <v>1</v>
+      </c>
+      <c r="L335">
         <v>1</v>
       </c>
     </row>
@@ -12719,60 +12726,60 @@
         <v>255</v>
       </c>
       <c r="C336">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336">
+        <v>32</v>
+      </c>
+      <c r="F336">
+        <v>90</v>
+      </c>
+      <c r="G336" s="2">
+        <v>405</v>
+      </c>
+      <c r="H336">
+        <v>300</v>
+      </c>
+      <c r="I336" t="s">
         <v>76</v>
       </c>
-      <c r="E336">
-        <v>69</v>
-      </c>
-      <c r="F336">
-        <v>2</v>
-      </c>
-      <c r="G336" s="2">
-        <v>426</v>
-      </c>
-      <c r="H336">
-        <v>750</v>
-      </c>
-      <c r="I336" t="s">
-        <v>134</v>
-      </c>
       <c r="J336">
-        <v>2760</v>
+        <v>770</v>
+      </c>
+      <c r="P336">
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C337">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D337" t="s">
+        <v>76</v>
+      </c>
+      <c r="E337">
+        <v>69</v>
+      </c>
+      <c r="F337">
+        <v>2</v>
+      </c>
+      <c r="G337" s="2">
+        <v>426</v>
+      </c>
+      <c r="H337">
+        <v>750</v>
+      </c>
+      <c r="I337" t="s">
         <v>134</v>
       </c>
-      <c r="E337">
-        <v>37</v>
-      </c>
-      <c r="F337">
-        <v>8</v>
-      </c>
-      <c r="G337" s="2">
-        <v>1004</v>
-      </c>
-      <c r="H337">
-        <v>285</v>
-      </c>
-      <c r="I337" t="s">
-        <v>11</v>
-      </c>
       <c r="J337">
-        <v>565</v>
-      </c>
-      <c r="L337">
-        <v>2</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.25">
@@ -12780,31 +12787,31 @@
         <v>273</v>
       </c>
       <c r="C338">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D338" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="E338">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F338">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G338" s="2">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="H338">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="I338" t="s">
         <v>11</v>
       </c>
       <c r="J338">
-        <v>420</v>
+        <v>565</v>
       </c>
       <c r="L338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.25">
@@ -12812,33 +12819,30 @@
         <v>273</v>
       </c>
       <c r="C339">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D339" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E339">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F339">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G339" s="2">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="H339">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I339" t="s">
         <v>11</v>
       </c>
       <c r="J339">
-        <v>770</v>
+        <v>420</v>
       </c>
       <c r="L339">
-        <v>2</v>
-      </c>
-      <c r="U339">
         <v>1</v>
       </c>
     </row>
@@ -12847,33 +12851,33 @@
         <v>273</v>
       </c>
       <c r="C340">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D340" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E340">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="F340">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="G340" s="2">
-        <v>1052</v>
+        <v>1028</v>
       </c>
       <c r="H340">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I340" t="s">
         <v>11</v>
       </c>
       <c r="J340">
-        <v>260</v>
-      </c>
-      <c r="K340">
-        <v>1</v>
+        <v>770</v>
       </c>
       <c r="L340">
+        <v>2</v>
+      </c>
+      <c r="U340">
         <v>1</v>
       </c>
     </row>
@@ -12882,31 +12886,34 @@
         <v>273</v>
       </c>
       <c r="C341">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D341" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E341">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="F341">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="G341" s="2">
-        <v>1107</v>
+        <v>1052</v>
       </c>
       <c r="H341">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="I341" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="J341">
-        <v>335</v>
-      </c>
-      <c r="U341">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.25">
@@ -12914,33 +12921,30 @@
         <v>273</v>
       </c>
       <c r="C342">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D342" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E342">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F342">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G342" s="2">
-        <v>1123</v>
+        <v>1107</v>
       </c>
       <c r="H342">
         <v>70</v>
       </c>
       <c r="I342" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="J342">
-        <v>70</v>
-      </c>
-      <c r="K342">
-        <v>1</v>
-      </c>
-      <c r="L342">
+        <v>335</v>
+      </c>
+      <c r="U342">
         <v>3</v>
       </c>
     </row>
@@ -12949,28 +12953,31 @@
         <v>273</v>
       </c>
       <c r="C343">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D343" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E343">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F343">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G343" s="2">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="H343">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="I343" t="s">
         <v>11</v>
       </c>
       <c r="J343">
-        <v>400</v>
+        <v>70</v>
+      </c>
+      <c r="K343">
+        <v>1</v>
       </c>
       <c r="L343">
         <v>3</v>
@@ -12981,31 +12988,31 @@
         <v>273</v>
       </c>
       <c r="C344">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D344" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E344">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F344">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G344" s="2">
-        <v>1157</v>
+        <v>1138</v>
       </c>
       <c r="H344">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="I344" t="s">
         <v>11</v>
       </c>
       <c r="J344">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="L344">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.25">
@@ -13013,31 +13020,31 @@
         <v>273</v>
       </c>
       <c r="C345">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D345" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E345">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F345">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="G345" s="2">
-        <v>1212</v>
+        <v>1157</v>
       </c>
       <c r="H345">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="I345" t="s">
         <v>11</v>
       </c>
       <c r="J345">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="L345">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.25">
@@ -13045,31 +13052,31 @@
         <v>273</v>
       </c>
       <c r="C346">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D346" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E346">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="F346">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="G346" s="2">
-        <v>1250</v>
+        <v>1212</v>
       </c>
       <c r="H346">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I346" t="s">
         <v>11</v>
       </c>
       <c r="J346">
-        <v>730</v>
+        <v>450</v>
       </c>
       <c r="L346">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.25">
@@ -13077,31 +13084,31 @@
         <v>273</v>
       </c>
       <c r="C347">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D347" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E347">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="F347">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="G347" s="2">
-        <v>106</v>
+        <v>1250</v>
       </c>
       <c r="H347">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I347" t="s">
         <v>11</v>
       </c>
       <c r="J347">
-        <v>470</v>
+        <v>730</v>
       </c>
       <c r="L347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.25">
@@ -13109,16 +13116,16 @@
         <v>273</v>
       </c>
       <c r="C348">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D348" t="s">
         <v>11</v>
       </c>
       <c r="E348">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F348">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G348" s="2">
         <v>106</v>
@@ -13130,7 +13137,7 @@
         <v>11</v>
       </c>
       <c r="J348">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="L348">
         <v>2</v>
@@ -13141,31 +13148,31 @@
         <v>273</v>
       </c>
       <c r="C349">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D349" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E349">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F349">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G349" s="2">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="H349">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="I349" t="s">
         <v>11</v>
       </c>
       <c r="J349">
-        <v>510</v>
+        <v>620</v>
       </c>
       <c r="L349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.25">
@@ -13173,28 +13180,31 @@
         <v>273</v>
       </c>
       <c r="C350">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D350" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E350">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="F350">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="G350" s="2">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H350">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="I350" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J350">
-        <v>400</v>
+        <v>510</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.25">
@@ -13202,28 +13212,28 @@
         <v>273</v>
       </c>
       <c r="C351">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D351" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E351">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="F351">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="G351" s="2">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="H351">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I351" t="s">
-        <v>76</v>
-      </c>
-      <c r="J351" t="s">
-        <v>307</v>
+        <v>10</v>
+      </c>
+      <c r="J351">
+        <v>400</v>
       </c>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.25">
@@ -13231,28 +13241,28 @@
         <v>273</v>
       </c>
       <c r="C352">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D352" t="s">
         <v>76</v>
       </c>
       <c r="E352">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F352">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G352" s="2">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="H352">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="I352" t="s">
-        <v>10</v>
-      </c>
-      <c r="J352">
-        <v>340</v>
+        <v>76</v>
+      </c>
+      <c r="J352" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.25">
@@ -13260,34 +13270,28 @@
         <v>273</v>
       </c>
       <c r="C353">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D353" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E353">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F353">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G353" s="2">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H353">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="I353" t="s">
         <v>10</v>
       </c>
       <c r="J353">
-        <v>20</v>
-      </c>
-      <c r="K353">
-        <v>1</v>
-      </c>
-      <c r="L353">
-        <v>2</v>
+        <v>340</v>
       </c>
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.25">
@@ -13295,34 +13299,34 @@
         <v>273</v>
       </c>
       <c r="C354">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D354" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E354">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F354">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="G354" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="H354">
         <v>20</v>
       </c>
       <c r="I354" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="J354">
-        <v>305</v>
+        <v>20</v>
+      </c>
+      <c r="K354">
+        <v>1</v>
       </c>
       <c r="L354">
-        <v>1</v>
-      </c>
-      <c r="U354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.25">
@@ -13330,34 +13334,34 @@
         <v>273</v>
       </c>
       <c r="C355">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D355" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E355">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="F355">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="G355" s="2">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="H355">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I355" t="s">
         <v>134</v>
       </c>
       <c r="J355">
-        <v>240</v>
-      </c>
-      <c r="K355">
+        <v>305</v>
+      </c>
+      <c r="L355">
         <v>1</v>
       </c>
       <c r="U355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.25">
@@ -13365,16 +13369,16 @@
         <v>273</v>
       </c>
       <c r="C356">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D356" t="s">
         <v>134</v>
       </c>
       <c r="E356">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F356">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G356" s="2">
         <v>302</v>
@@ -13386,7 +13390,7 @@
         <v>134</v>
       </c>
       <c r="J356">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K356">
         <v>1</v>
@@ -13400,34 +13404,34 @@
         <v>273</v>
       </c>
       <c r="C357">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D357" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E357">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F357">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G357" s="2">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="H357">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I357" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="J357">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K357">
         <v>1</v>
       </c>
       <c r="U357">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.25">
@@ -13435,28 +13439,34 @@
         <v>273</v>
       </c>
       <c r="C358">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D358" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E358">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="F358">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="G358" s="2">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="H358">
-        <v>405</v>
+        <v>180</v>
       </c>
       <c r="I358" t="s">
         <v>10</v>
       </c>
       <c r="J358">
-        <v>405</v>
+        <v>180</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+      <c r="U358">
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.25">
@@ -13464,34 +13474,28 @@
         <v>273</v>
       </c>
       <c r="C359">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D359" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E359">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="F359">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="G359" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H359">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="I359" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J359">
-        <v>155</v>
-      </c>
-      <c r="K359">
-        <v>2</v>
-      </c>
-      <c r="L359">
-        <v>1</v>
+        <v>405</v>
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.25">
@@ -13499,31 +13503,34 @@
         <v>273</v>
       </c>
       <c r="C360">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D360" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E360">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F360">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="G360" s="2">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="H360">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I360" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J360">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K360">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="L360">
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.25">
@@ -13531,63 +13538,63 @@
         <v>273</v>
       </c>
       <c r="C361">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D361" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E361">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="F361">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G361" s="2">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H361">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="I361" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J361">
-        <v>560</v>
-      </c>
-      <c r="P361">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="K361">
+        <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C362">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D362" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E362">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="F362">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G362" s="2">
-        <v>955</v>
+        <v>420</v>
       </c>
       <c r="H362">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="I362" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J362">
-        <v>1310</v>
-      </c>
-      <c r="L362">
-        <v>2</v>
+        <v>560</v>
+      </c>
+      <c r="P362">
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.25">
@@ -13595,31 +13602,31 @@
         <v>286</v>
       </c>
       <c r="C363">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D363" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E363">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F363">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G363" s="2">
-        <v>1015</v>
+        <v>955</v>
       </c>
       <c r="H363">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="I363" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J363">
-        <v>585</v>
-      </c>
-      <c r="P363">
-        <v>1</v>
+        <v>1310</v>
+      </c>
+      <c r="L363">
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.25">
@@ -13627,31 +13634,28 @@
         <v>286</v>
       </c>
       <c r="C364">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D364" t="s">
+        <v>134</v>
+      </c>
+      <c r="E364">
+        <v>36</v>
+      </c>
+      <c r="F364">
+        <v>8</v>
+      </c>
+      <c r="G364" s="2">
+        <v>1015</v>
+      </c>
+      <c r="H364">
+        <v>250</v>
+      </c>
+      <c r="I364" t="s">
         <v>76</v>
       </c>
-      <c r="E364">
-        <v>70</v>
-      </c>
-      <c r="F364">
-        <v>3</v>
-      </c>
-      <c r="G364" s="2">
-        <v>1030</v>
-      </c>
-      <c r="H364">
-        <v>0</v>
-      </c>
-      <c r="I364" t="s">
-        <v>16</v>
-      </c>
       <c r="J364">
-        <v>410</v>
-      </c>
-      <c r="L364">
-        <v>1</v>
+        <v>585</v>
       </c>
       <c r="P364">
         <v>1</v>
@@ -13662,16 +13666,16 @@
         <v>286</v>
       </c>
       <c r="C365">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D365" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E365">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F365">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G365" s="2">
         <v>1030</v>
@@ -13680,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="J365">
         <v>410</v>
@@ -13688,7 +13692,7 @@
       <c r="L365">
         <v>1</v>
       </c>
-      <c r="R365">
+      <c r="P365">
         <v>1</v>
       </c>
     </row>
@@ -13697,30 +13701,33 @@
         <v>286</v>
       </c>
       <c r="C366">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D366" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="E366">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F366">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G366" s="2">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="H366">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="I366" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J366">
-        <v>235</v>
-      </c>
-      <c r="K366">
+        <v>410</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="R366">
         <v>1</v>
       </c>
     </row>
@@ -13729,34 +13736,31 @@
         <v>286</v>
       </c>
       <c r="C367">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D367" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E367">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="F367">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="G367" s="2">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="H367">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="I367" t="s">
         <v>10</v>
       </c>
       <c r="J367">
-        <v>130</v>
-      </c>
-      <c r="P367">
-        <v>1</v>
-      </c>
-      <c r="U367">
-        <v>5</v>
+        <v>235</v>
+      </c>
+      <c r="K367">
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.25">
@@ -13764,31 +13768,34 @@
         <v>286</v>
       </c>
       <c r="C368">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D368" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E368">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="F368">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="G368" s="2">
-        <v>1116</v>
+        <v>1059</v>
       </c>
       <c r="H368">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I368" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J368">
-        <v>400</v>
+        <v>130</v>
+      </c>
+      <c r="P368">
+        <v>1</v>
       </c>
       <c r="U368">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:21" x14ac:dyDescent="0.25">
@@ -13796,16 +13803,16 @@
         <v>286</v>
       </c>
       <c r="C369">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D369" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E369">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F369">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G369" s="2">
         <v>1116</v>
@@ -13814,16 +13821,13 @@
         <v>25</v>
       </c>
       <c r="I369" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="J369">
-        <v>470</v>
-      </c>
-      <c r="K369">
-        <v>2</v>
-      </c>
-      <c r="L369">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="U369">
+        <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:21" x14ac:dyDescent="0.25">
@@ -13831,36 +13835,33 @@
         <v>286</v>
       </c>
       <c r="C370">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D370" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E370">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F370">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="G370" s="2">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="H370">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I370" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="J370">
-        <v>105</v>
+        <v>470</v>
       </c>
       <c r="K370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L370">
-        <v>1</v>
-      </c>
-      <c r="U370">
         <v>1</v>
       </c>
     </row>
@@ -13869,34 +13870,37 @@
         <v>286</v>
       </c>
       <c r="C371">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D371" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E371">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="F371">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="G371" s="2">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="H371">
         <v>105</v>
       </c>
       <c r="I371" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J371">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="K371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L371">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="U371">
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:21" x14ac:dyDescent="0.25">
@@ -13904,34 +13908,34 @@
         <v>286</v>
       </c>
       <c r="C372">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D372" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E372">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="F372">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="G372" s="2">
-        <v>1204</v>
+        <v>1144</v>
       </c>
       <c r="H372">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I372" t="s">
         <v>11</v>
       </c>
       <c r="J372">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L372">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:21" x14ac:dyDescent="0.25">
@@ -13939,16 +13943,16 @@
         <v>286</v>
       </c>
       <c r="C373">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D373" t="s">
         <v>11</v>
       </c>
       <c r="E373">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F373">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G373" s="2">
         <v>1204</v>
@@ -13960,7 +13964,7 @@
         <v>11</v>
       </c>
       <c r="J373">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K373">
         <v>1</v>
@@ -13974,28 +13978,31 @@
         <v>286</v>
       </c>
       <c r="C374">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D374" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E374">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="F374">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G374" s="2">
-        <v>1248</v>
+        <v>1204</v>
       </c>
       <c r="H374">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="I374" t="s">
         <v>11</v>
       </c>
       <c r="J374">
-        <v>495</v>
+        <v>160</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
       </c>
       <c r="L374">
         <v>1</v>
@@ -14006,28 +14013,31 @@
         <v>286</v>
       </c>
       <c r="C375">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D375" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E375">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="F375">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="G375" s="2">
-        <v>107</v>
+        <v>1248</v>
       </c>
       <c r="H375">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="I375" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J375">
-        <v>315</v>
+        <v>495</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.25">
@@ -14035,28 +14045,28 @@
         <v>286</v>
       </c>
       <c r="C376">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D376" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E376">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F376">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G376" s="2">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H376">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="I376" t="s">
         <v>10</v>
       </c>
       <c r="J376">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.25">
@@ -14064,31 +14074,28 @@
         <v>286</v>
       </c>
       <c r="C377">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D377" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E377">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F377">
         <v>20</v>
       </c>
       <c r="G377" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H377">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="I377" t="s">
         <v>10</v>
       </c>
       <c r="J377">
-        <v>290</v>
-      </c>
-      <c r="K377">
-        <v>1</v>
+        <v>340</v>
       </c>
     </row>
     <row r="378" spans="1:21" x14ac:dyDescent="0.25">
@@ -14096,33 +14103,30 @@
         <v>286</v>
       </c>
       <c r="C378">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D378" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E378">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="F378">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G378" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H378">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="I378" t="s">
         <v>10</v>
       </c>
       <c r="J378">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="K378">
-        <v>1</v>
-      </c>
-      <c r="M378">
         <v>1</v>
       </c>
     </row>
@@ -14131,34 +14135,34 @@
         <v>286</v>
       </c>
       <c r="C379">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D379" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E379">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="F379">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="G379" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="H379">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I379" t="s">
         <v>10</v>
       </c>
       <c r="J379">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K379">
         <v>1</v>
       </c>
-      <c r="U379">
-        <v>2</v>
+      <c r="M379">
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:21" x14ac:dyDescent="0.25">
@@ -14166,34 +14170,34 @@
         <v>286</v>
       </c>
       <c r="C380">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D380" t="s">
         <v>134</v>
       </c>
       <c r="E380">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F380">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G380" s="2">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="H380">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="I380" t="s">
         <v>10</v>
       </c>
       <c r="J380">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="K380">
         <v>1</v>
       </c>
       <c r="U380">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:21" x14ac:dyDescent="0.25">
@@ -14201,30 +14205,33 @@
         <v>286</v>
       </c>
       <c r="C381">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D381" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="E381">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F381">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G381" s="2">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="H381">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="I381" t="s">
         <v>10</v>
       </c>
       <c r="J381">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K381">
+        <v>1</v>
+      </c>
+      <c r="U381">
         <v>1</v>
       </c>
     </row>
@@ -14233,34 +14240,31 @@
         <v>286</v>
       </c>
       <c r="C382">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D382" t="s">
         <v>11</v>
       </c>
       <c r="E382">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F382">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G382" s="2">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="H382">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="I382" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J382">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K382">
         <v>1</v>
-      </c>
-      <c r="L382">
-        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:21" x14ac:dyDescent="0.25">
@@ -14268,31 +14272,34 @@
         <v>286</v>
       </c>
       <c r="C383">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D383" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E383">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F383">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G383" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H383">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="I383" t="s">
         <v>11</v>
       </c>
       <c r="J383">
-        <v>400</v>
+        <v>160</v>
+      </c>
+      <c r="K383">
+        <v>1</v>
       </c>
       <c r="L383">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:21" x14ac:dyDescent="0.25">
@@ -14300,31 +14307,31 @@
         <v>286</v>
       </c>
       <c r="C384">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D384" t="s">
         <v>76</v>
       </c>
       <c r="E384">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F384">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G384" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H384">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="I384" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J384">
-        <v>205</v>
-      </c>
-      <c r="K384">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="L384">
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:21" x14ac:dyDescent="0.25">
@@ -14332,36 +14339,30 @@
         <v>286</v>
       </c>
       <c r="C385">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D385" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E385">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="F385">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="G385" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="I385" t="s">
         <v>10</v>
       </c>
       <c r="J385">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="K385">
-        <v>1</v>
-      </c>
-      <c r="L385">
-        <v>1</v>
-      </c>
-      <c r="P385">
         <v>1</v>
       </c>
     </row>
@@ -14370,60 +14371,69 @@
         <v>286</v>
       </c>
       <c r="C386">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D386" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E386">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="F386">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="G386" s="2">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="H386">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="I386" t="s">
         <v>10</v>
       </c>
       <c r="J386">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="K386">
+        <v>1</v>
+      </c>
+      <c r="L386">
+        <v>1</v>
+      </c>
+      <c r="P386">
         <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
       <c r="C387">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D387" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E387">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F387">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G387" s="2">
-        <v>947</v>
+        <v>402</v>
       </c>
       <c r="H387">
-        <v>350</v>
+        <v>205</v>
       </c>
       <c r="I387" t="s">
         <v>10</v>
       </c>
       <c r="J387">
-        <v>350</v>
+        <v>205</v>
+      </c>
+      <c r="K387">
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:21" x14ac:dyDescent="0.25">
@@ -14431,31 +14441,28 @@
         <v>395</v>
       </c>
       <c r="C388">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D388" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E388">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="F388">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G388" s="2">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="H388">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="I388" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J388">
-        <v>730</v>
-      </c>
-      <c r="L388">
-        <v>1</v>
+        <v>350</v>
       </c>
     </row>
     <row r="389" spans="1:21" x14ac:dyDescent="0.25">
@@ -14463,28 +14470,28 @@
         <v>395</v>
       </c>
       <c r="C389">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D389" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E389">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="F389">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="G389" s="2">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="H389">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="I389" t="s">
         <v>11</v>
       </c>
       <c r="J389">
-        <v>635</v>
+        <v>730</v>
       </c>
       <c r="L389">
         <v>1</v>
@@ -14495,16 +14502,16 @@
         <v>395</v>
       </c>
       <c r="C390">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D390" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="E390">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F390">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G390" s="2">
         <v>1016</v>
@@ -14513,12 +14520,12 @@
         <v>115</v>
       </c>
       <c r="I390" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="J390">
-        <v>510</v>
-      </c>
-      <c r="U390">
+        <v>635</v>
+      </c>
+      <c r="L390">
         <v>1</v>
       </c>
     </row>
@@ -14527,28 +14534,31 @@
         <v>395</v>
       </c>
       <c r="C391">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D391" t="s">
         <v>11</v>
       </c>
       <c r="E391">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F391">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G391" s="2">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="H391">
-        <v>660</v>
+        <v>115</v>
       </c>
       <c r="I391" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="J391">
-        <v>950</v>
+        <v>510</v>
+      </c>
+      <c r="U391">
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.25">
@@ -14556,28 +14566,28 @@
         <v>395</v>
       </c>
       <c r="C392">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D392" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E392">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="F392">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="G392" s="2">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="H392">
-        <v>50</v>
+        <v>660</v>
       </c>
       <c r="I392" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J392">
-        <v>50</v>
+        <v>950</v>
       </c>
     </row>
     <row r="393" spans="1:21" x14ac:dyDescent="0.25">
@@ -14585,31 +14595,28 @@
         <v>395</v>
       </c>
       <c r="C393">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D393" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E393">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="F393">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="G393" s="2">
-        <v>1114</v>
+        <v>1058</v>
       </c>
       <c r="H393">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I393" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="J393">
-        <v>655</v>
-      </c>
-      <c r="U393">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.25">
@@ -14617,28 +14624,31 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D394" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E394">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="F394">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="G394" s="2">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="H394">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="I394" t="s">
         <v>134</v>
       </c>
       <c r="J394">
-        <v>485</v>
+        <v>655</v>
+      </c>
+      <c r="U394">
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:21" x14ac:dyDescent="0.25">
@@ -14646,28 +14656,28 @@
         <v>395</v>
       </c>
       <c r="C395">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D395" t="s">
+        <v>10</v>
+      </c>
+      <c r="E395">
+        <v>210</v>
+      </c>
+      <c r="F395">
+        <v>465</v>
+      </c>
+      <c r="G395" s="2">
+        <v>1130</v>
+      </c>
+      <c r="H395">
+        <v>470</v>
+      </c>
+      <c r="I395" t="s">
         <v>134</v>
       </c>
-      <c r="E395">
-        <v>41</v>
-      </c>
-      <c r="F395">
-        <v>6</v>
-      </c>
-      <c r="G395" s="2">
-        <v>1142</v>
-      </c>
-      <c r="H395">
-        <v>315</v>
-      </c>
-      <c r="I395" t="s">
-        <v>10</v>
-      </c>
       <c r="J395">
-        <v>315</v>
+        <v>485</v>
       </c>
     </row>
     <row r="396" spans="1:21" x14ac:dyDescent="0.25">
@@ -14675,35 +14685,61 @@
         <v>395</v>
       </c>
       <c r="C396">
+        <v>394</v>
+      </c>
+      <c r="D396" t="s">
+        <v>134</v>
+      </c>
+      <c r="E396">
+        <v>41</v>
+      </c>
+      <c r="F396">
+        <v>6</v>
+      </c>
+      <c r="G396" s="2">
+        <v>1142</v>
+      </c>
+      <c r="H396">
+        <v>315</v>
+      </c>
+      <c r="I396" t="s">
+        <v>10</v>
+      </c>
+      <c r="J396">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>395</v>
       </c>
-      <c r="D396" t="s">
-        <v>10</v>
-      </c>
-      <c r="E396">
+      <c r="C397">
+        <v>395</v>
+      </c>
+      <c r="D397" t="s">
+        <v>10</v>
+      </c>
+      <c r="E397">
         <v>62</v>
       </c>
-      <c r="F396">
+      <c r="F397">
         <v>40</v>
       </c>
-      <c r="G396" s="2">
+      <c r="G397" s="2">
         <v>1156</v>
       </c>
-      <c r="H396">
+      <c r="H397">
         <v>250</v>
       </c>
-      <c r="I396" t="s">
+      <c r="I397" t="s">
         <v>134</v>
       </c>
-      <c r="J396">
+      <c r="J397">
         <v>685</v>
       </c>
-      <c r="U396">
+      <c r="U397">
         <v>3</v>
       </c>
-    </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G397" s="2"/>
     </row>
     <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G398" s="2"/>
@@ -14836,6 +14872,9 @@
     </row>
     <row r="441" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G441" s="2"/>
+    </row>
+    <row r="442" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G442" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14847,7 +14886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
